--- a/qa-challenge-main/qa-challenge-nicolas-sira/api-test/API_Test_Reportv2.xlsx
+++ b/qa-challenge-main/qa-challenge-nicolas-sira/api-test/API_Test_Reportv2.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasd0\Downloads\qa-challenge-main-nicolas-sira\qa-challenge-main\qa-challenge-nicolas-sira\api-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9114611F-841D-4399-AED0-406A63A80E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F33664-CA58-4B42-A65D-756561C0A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Definitions" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Results" sheetId="2" r:id="rId2"/>
-    <sheet name="Defects" sheetId="4" r:id="rId3"/>
+    <sheet name="Test case development" sheetId="5" r:id="rId2"/>
+    <sheet name="Test Results" sheetId="2" r:id="rId3"/>
+    <sheet name="Defects" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="313">
   <si>
     <t>Test ID</t>
   </si>
@@ -757,12 +758,383 @@
   <si>
     <t>Defect ID</t>
   </si>
+  <si>
+    <t>TEST CASE DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>Backend C# APIS</t>
+  </si>
+  <si>
+    <t>API TESTING FOR USER AUTHENTICATION</t>
+  </si>
+  <si>
+    <t>API TESTING FOR PRODUCT MANAGEMENT</t>
+  </si>
+  <si>
+    <t>API TESTING FOR ORDER MANAGEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend </t>
+  </si>
+  <si>
+    <t>Script File</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>LOGIN-01</t>
+  </si>
+  <si>
+    <t>login.cy.js</t>
+  </si>
+  <si>
+    <t>Logs in successfully with valid credentials</t>
+  </si>
+  <si>
+    <t>LOGIN-02</t>
+  </si>
+  <si>
+    <t>Fails login with wrong password</t>
+  </si>
+  <si>
+    <t>LOGIN-03</t>
+  </si>
+  <si>
+    <t>Fails login with wrong username</t>
+  </si>
+  <si>
+    <t>LOGIN-04</t>
+  </si>
+  <si>
+    <t>Fails login with both fields incorrect</t>
+  </si>
+  <si>
+    <t>LOGIN-05</t>
+  </si>
+  <si>
+    <t>Fails login with empty password</t>
+  </si>
+  <si>
+    <t>LOGIN-06</t>
+  </si>
+  <si>
+    <t>Fails login with empty username</t>
+  </si>
+  <si>
+    <t>LOGIN-07</t>
+  </si>
+  <si>
+    <t>Fails login with both fields empty</t>
+  </si>
+  <si>
+    <t>ORDER-LIST-01</t>
+  </si>
+  <si>
+    <t>order-list.cy.js</t>
+  </si>
+  <si>
+    <t>Display empty list of orders</t>
+  </si>
+  <si>
+    <t>ORDER-LIST-02</t>
+  </si>
+  <si>
+    <t>Creates a new order</t>
+  </si>
+  <si>
+    <t>ORDER-LIST-03</t>
+  </si>
+  <si>
+    <t>Updates an order</t>
+  </si>
+  <si>
+    <t>ORDER-LIST-04</t>
+  </si>
+  <si>
+    <t>Deletes an order</t>
+  </si>
+  <si>
+    <t>ORDER-LIST-05</t>
+  </si>
+  <si>
+    <t>Bulk inserts and deletes orders</t>
+  </si>
+  <si>
+    <t>PRODUCT-LIST-01</t>
+  </si>
+  <si>
+    <t>product-list.cy.js</t>
+  </si>
+  <si>
+    <t>Fetches all products empty</t>
+  </si>
+  <si>
+    <t>PRODUCT-LIST-02</t>
+  </si>
+  <si>
+    <t>Creates a new product</t>
+  </si>
+  <si>
+    <t>PRODUCT-LIST-03</t>
+  </si>
+  <si>
+    <t>Fetches all products</t>
+  </si>
+  <si>
+    <t>PRODUCT-LIST-04</t>
+  </si>
+  <si>
+    <t>Fetches a product by ID</t>
+  </si>
+  <si>
+    <t>PRODUCT-LIST-05</t>
+  </si>
+  <si>
+    <t>Updates a product</t>
+  </si>
+  <si>
+    <t>PRODUCT-LIST-06</t>
+  </si>
+  <si>
+    <t>Deletes a single product</t>
+  </si>
+  <si>
+    <t>PRODUCT-LIST-07</t>
+  </si>
+  <si>
+    <t>Inserts multiple products</t>
+  </si>
+  <si>
+    <t>PRODUCT-LIST-08</t>
+  </si>
+  <si>
+    <t>Deletes multiple products</t>
+  </si>
+  <si>
+    <t>RESPONSIVE-01</t>
+  </si>
+  <si>
+    <t>responsive.cy.js</t>
+  </si>
+  <si>
+    <t>Displays nav and page content correctly on all routes</t>
+  </si>
+  <si>
+    <t>DASHBOARD-01</t>
+  </si>
+  <si>
+    <t>dashboard.cy.js</t>
+  </si>
+  <si>
+    <t>Should load dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN TESTING </t>
+  </si>
+  <si>
+    <t>ORDER LIST TESTING</t>
+  </si>
+  <si>
+    <t>PRODUCT LIST TESTING</t>
+  </si>
+  <si>
+    <t>RESPONSIVE CAPABILITIES TESTING</t>
+  </si>
+  <si>
+    <t>DASHBOAR PAGE TESTING</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected results</t>
+  </si>
+  <si>
+    <t>Succesfull login and a token</t>
+  </si>
+  <si>
+    <t>1- Go to login Page
+2- Fill login form with correct user info
+3- press login button</t>
+  </si>
+  <si>
+    <t>1- Go to login Page
+2- Fill login form with wrong password
+3- press login button</t>
+  </si>
+  <si>
+    <t>Fail to login</t>
+  </si>
+  <si>
+    <t>1- Go to login Page
+2- Fill login form with wrong user name
+3- press login button</t>
+  </si>
+  <si>
+    <t>1- Go to login Page
+2- Fill login form with both fields wrong
+3- press login button</t>
+  </si>
+  <si>
+    <t>1- Go to login Page
+2- Fill only username text input
+3- press login button</t>
+  </si>
+  <si>
+    <t>1- Go to login Page
+2- Fill only password text input
+3- press login button</t>
+  </si>
+  <si>
+    <t>1- Go to login Page
+2- press login button</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>1-Go to orders page</t>
+  </si>
+  <si>
+    <t>Renders a list of logged orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to orders page
+2- Sent a POST REQUEST
+3- Reload the page
+4- Check for the existence of the order
+</t>
+  </si>
+  <si>
+    <t>New order displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to orders page
+2-Sent a PUT REQUEST
+3-Reload the page
+4- Check for updated information
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order updated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to orders page
+2-Sent a DELETE REQUEST
+3-Reload the page
+4- Check for the order not to be rendered
+</t>
+  </si>
+  <si>
+    <t>Order deleted</t>
+  </si>
+  <si>
+    <t>1- Go to orders page
+2-Sent various POST REQUEST
+3-Reload the page on each iteration
+4- Check for the last created order
+5- Send 2 DELETE REQUEST 
+6- Reload on each iteration
+7- Check for the orders to not be rendered</t>
+  </si>
+  <si>
+    <t>Orders created deleted and 4 orders remains</t>
+  </si>
+  <si>
+    <t>Render a list of products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- go to products page
+2- Ensure no item is rendered
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to Products page
+2- Ensure the item is rendered
+</t>
+  </si>
+  <si>
+    <t>1- Go to Products page
+2- Sent a POST REQUEST with and ID
+3- Check response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to Products page
+2- Sent a PUT REQUEST
+3- Reload the page
+4- Check for the existence of the updated product
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to Products page
+2- Sent a POST REQUEST
+3- Reload the page
+4- Check for the existence of the Product
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to Products page
+2- Sent a DELETE REQUEST
+3- Reload the page
+4- Check for the existence of theProduct
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to products page
+2-Sent various POST REQUEST
+3-Reload the page on each iteration
+4- Check for each created Product
+</t>
+  </si>
+  <si>
+    <t>1- Send 2 DELETE REQUEST 
+2- Reload on each iteration
+3- Check for the products to not be rendered</t>
+  </si>
+  <si>
+    <t>Product created</t>
+  </si>
+  <si>
+    <t>Empry array</t>
+  </si>
+  <si>
+    <t>Product payload</t>
+  </si>
+  <si>
+    <t>Updated product</t>
+  </si>
+  <si>
+    <t>Deleted product</t>
+  </si>
+  <si>
+    <t>Multiple products created</t>
+  </si>
+  <si>
+    <t>2 products deleted, 4 remain</t>
+  </si>
+  <si>
+    <t>1- Change the viewport
+2-check for the existance of the pages</t>
+  </si>
+  <si>
+    <t>all information rendered in all viewports</t>
+  </si>
+  <si>
+    <t>1- Go to dashboard page</t>
+  </si>
+  <si>
+    <t>Dashboard page should render</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,16 +1156,67 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -814,11 +1237,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -827,11 +1265,871 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -861,6 +2159,23 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -888,49 +2203,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -945,21 +2217,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEA2EEB0-2941-4A13-9C32-037A6E9DCF2C}" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:E39" xr:uid="{AEA2EEB0-2941-4A13-9C32-037A6E9DCF2C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEA2EEB0-2941-4A13-9C32-037A6E9DCF2C}" name="Table1" displayName="Table1" ref="A3:E44" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64">
+  <autoFilter ref="A3:E44" xr:uid="{AEA2EEB0-2941-4A13-9C32-037A6E9DCF2C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E98314E8-767C-495D-AAD6-8B58E175AD52}" name="Test ID"/>
     <tableColumn id="2" xr3:uid="{F6978C35-B8BB-426C-BE21-B917EDDA7E7E}" name="Endpoint"/>
     <tableColumn id="3" xr3:uid="{6320691A-F614-4B94-A42E-0EE23B373124}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{983D9710-B166-4A3B-90C1-9005FA033356}" name="Request Body" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{983D9710-B166-4A3B-90C1-9005FA033356}" name="Request Body" dataDxfId="63"/>
     <tableColumn id="5" xr3:uid="{085F3AD9-FC9D-4E48-BACC-9CAD073C47E4}" name="Expected Result"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D14F5D6E-FC76-4B85-978B-04E342976455}" name="Table2" displayName="Table2" ref="A1:E39" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D14F5D6E-FC76-4B85-978B-04E342976455}" name="Table2" displayName="Table2" ref="A1:E39" totalsRowShown="0" headerRowDxfId="62" headerRowBorderDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:E39" xr:uid="{D14F5D6E-FC76-4B85-978B-04E342976455}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2A769AD0-FBCC-4B47-9C0C-1DD20BC41CA6}" name="Test ID"/>
@@ -972,18 +2244,130 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E48ABB9D-8FFE-4A40-8425-9146C90CA7D1}" name="Table7" displayName="Table7" ref="A1:H22" totalsRowShown="0">
   <autoFilter ref="A1:H22" xr:uid="{E48ABB9D-8FFE-4A40-8425-9146C90CA7D1}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{2C202A33-4142-4382-9303-987A9DA80896}" name="Defect ID"/>
     <tableColumn id="2" xr3:uid="{27EB961C-29FD-4C54-8CD4-973E44388D0C}" name="Related test ID"/>
-    <tableColumn id="3" xr3:uid="{91AA94E9-31B1-4D3A-9CF4-B7E02C07EBDF}" name="Description" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{91AA94E9-31B1-4D3A-9CF4-B7E02C07EBDF}" name="Description" dataDxfId="59"/>
     <tableColumn id="4" xr3:uid="{CA897E31-3FDF-455C-B502-9685DE95B4B7}" name="Actual Response Code"/>
-    <tableColumn id="5" xr3:uid="{3CC030DB-CEE3-4019-B52F-4E2BF6F251E6}" name="Details" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{A5D8BEF7-8F52-4559-969D-D225A7A39D19}" name="Recommendation" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3CC030DB-CEE3-4019-B52F-4E2BF6F251E6}" name="Details" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{A5D8BEF7-8F52-4559-969D-D225A7A39D19}" name="Recommendation" dataDxfId="57"/>
     <tableColumn id="7" xr3:uid="{2DDB1967-7C18-4151-AAFE-7423034FF3BD}" name="Severity"/>
-    <tableColumn id="9" xr3:uid="{7A35ECD4-6B44-465B-9E92-DCB80139C82A}" name="Steps to Reproduce" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{7A35ECD4-6B44-465B-9E92-DCB80139C82A}" name="Steps to Reproduce" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{67902830-4282-4DC3-A524-19A91DE60174}" name="Table6" displayName="Table6" ref="A4:E8" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A4:E8" xr:uid="{67902830-4282-4DC3-A524-19A91DE60174}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{16DC7027-DE42-432F-9372-F9865297D7E4}" name="Test ID" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{F7821086-DD5E-44D9-81E7-232607BD8B17}" name="Endpoint" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{FD23C145-976C-4823-99D0-FA52E12E23FA}" name="Description" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{B5FCBDB4-DFA0-45C5-B7C3-74617946F129}" name="Request Body" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{1423993C-5F21-414E-9B3F-DB054F6962C2}" name="Expected Result" dataDxfId="51"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2CAC0B0C-B0E7-4BA5-93C8-45089A694DC2}" name="Table8" displayName="Table8" ref="A10:E27" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A10:E27" xr:uid="{2CAC0B0C-B0E7-4BA5-93C8-45089A694DC2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9BFE8265-9349-4A0D-9645-7D1C12260F7F}" name="Test ID" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{743DA2B1-34F0-4CB7-80A5-244F849F6240}" name="Endpoint" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{EA4EFDB8-5238-45E5-A27E-37B5E0CC34B1}" name="Description" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{F2EF1CD2-3543-4647-9197-1A16C654EE30}" name="Request Body" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{98D17EFC-89BD-454D-A3DB-B1C98A1B9001}" name="Expected Result" dataDxfId="44"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3C88E9AD-95B6-4ECD-9283-ACAB086DBCE3}" name="Table9" displayName="Table9" ref="A29:E46" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A29:E46" xr:uid="{3C88E9AD-95B6-4ECD-9283-ACAB086DBCE3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E7B8FAF1-1FAD-4043-AF62-1BECB00E2C9B}" name="Test ID" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{947537E8-2C5F-4804-8B9D-DCF91BC329B1}" name="Endpoint" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{8ABA8E52-B6BE-42B7-889F-82C0E32D8618}" name="Description" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{2B8CF8C0-80D9-4C58-AEAF-89899FE6B154}" name="Request Body" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{75891D4A-2167-473D-AB6F-A5E2A84F8313}" name="Expected Result" dataDxfId="37"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8BF142A4-843F-494D-AB01-F8C215B697A0}" name="Table11" displayName="Table11" ref="A49:E56" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A49:E56" xr:uid="{8BF142A4-843F-494D-AB01-F8C215B697A0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CA6B0D99-E036-470C-B359-57081FF39A7B}" name="Test ID" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{DC144035-8CA6-4259-90F0-AFD40A6A3F98}" name="Script File" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{4A5D49DB-3A1B-4EA1-97C5-8E9CCA9A0312}" name="Test Description" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{795FD0EB-9727-4AC3-8177-D12CF429DFE4}" name="Steps" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{8D395C8A-813A-473D-A374-429061B9E3D6}" name="Expected results" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{50191F9E-01B8-428C-B62D-393AC3323C81}" name="Table12" displayName="Table12" ref="A58:E63" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A58:E63" xr:uid="{50191F9E-01B8-428C-B62D-393AC3323C81}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A89FBAE7-2138-4571-A1DA-2FB465CF3C4F}" name="Test ID" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{09046C42-2F04-4075-A863-4D39EB70CFC0}" name="Script File" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{17403AC4-5127-4903-B0CB-5DAF0A65026D}" name="Test Description" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{DA401A9A-DAE4-4740-97E9-22DC5A58BB47}" name="Steps" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{AD12F012-3D2C-4125-823A-025518D93C6C}" name="Expected result" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{03798DBC-B158-4748-9177-98E545C5560D}" name="Table13" displayName="Table13" ref="A65:E73" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A65:E73" xr:uid="{03798DBC-B158-4748-9177-98E545C5560D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6D651B27-5F29-413D-BABA-DD84802EC6B4}" name="Test ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{DCF97B3E-2FAE-4E24-B96C-EFAE0273D871}" name="Script File" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{F7D84EF7-0871-485B-AD7B-B08DA283D738}" name="Test Description" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{D1892EE1-2790-4623-8E49-796A59E9EBD1}" name="Steps" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{F75DD76F-10F4-4B8D-B0BD-2552FB50A6FD}" name="Expected result" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D1645974-6A44-4F27-A7BA-F0C7341037D0}" name="Table14" displayName="Table14" ref="A75:E76" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A75:E76" xr:uid="{D1645974-6A44-4F27-A7BA-F0C7341037D0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9C461810-3AF0-46BD-BFD3-636D128BE84F}" name="Test ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{29A561DE-719C-4C7D-A0F9-D3CC748A7ECE}" name="Script File" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{EBCEA0EE-2207-4378-8AB2-76D6BEE6D915}" name="Test Description" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F2FAE58B-1823-4ED1-A0C5-A4B34458324B}" name="steps" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BCF41B12-A060-4BE6-8783-1A0FB854AFEC}" name="Expected result" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{674D1C9C-E243-4D4D-B650-2F0D6E4A0785}" name="Table15" displayName="Table15" ref="A78:E79" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A78:E79" xr:uid="{674D1C9C-E243-4D4D-B650-2F0D6E4A0785}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D6F0C091-9F15-4D70-BD86-D19844F1E4E0}" name="Test ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{ECF954AC-9DF5-43FF-A52B-5492074B0A6A}" name="Script File" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{26F646D2-FB7E-4746-B2C8-E6D437695A7B}" name="Test Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{61A3CE33-6DAF-4279-9B65-EFA8E1CC89FC}" name="Steps" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{604777C1-B7C6-4B17-AB71-AFF4450BAFAE}" name="Expected result" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1274,640 +2658,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection sqref="A1:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5546875" customWidth="1"/>
     <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>71</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>91</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C43" t="s">
         <v>92</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>93</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C44" t="s">
         <v>94</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E44" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1916,11 +3343,1288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392B71F3-F227-4667-AA83-CB127E623D4B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:E79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A47" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A28:E28"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>Page &amp;P</oddHeader>
+  </headerFooter>
+  <tableParts count="8">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2597,14 +5301,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A90BA7-92CB-48B5-A3AB-4023F890ADD9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3197,8 +5905,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>